--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3948669.638801232</v>
+        <v>4055438.517332109</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7154230.607260355</v>
+        <v>7126373.887583656</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.4848902928751</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>53.96935222463368</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>110.3425292688621</v>
       </c>
       <c r="V4" t="n">
-        <v>103.2588014327185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>40.12987973135942</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>336.6070090443466</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.781160222249223</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>263.1041105447599</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>181.651725057892</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>212.6691646375099</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>89.42695042856163</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>74.81661389418568</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>105.182073269868</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>134.1177455876056</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4312223122543</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>65.78783178799263</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>71.60395572454127</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>93.07916359105459</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>101.393069766706</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>20.8998342062217</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652659</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>50.17139158339562</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>214.4033048062054</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>68.07731664460677</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>112.7606860319981</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>155.6850131498963</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.424186004858</v>
+        <v>1283.162304328173</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>914.1997873877617</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>914.1997873877617</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>528.4115347895174</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>117.4256299999099</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>105.7612837646028</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139075</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y2" t="n">
-        <v>2188.873570139075</v>
+        <v>1669.762144392295</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>845.9911918222188</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>624.8936537153462</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1328.360271962781</v>
       </c>
       <c r="V4" t="n">
-        <v>1532.144300445488</v>
+        <v>1073.675783756894</v>
       </c>
       <c r="W4" t="n">
-        <v>1242.727130408528</v>
+        <v>1073.675783756894</v>
       </c>
       <c r="X4" t="n">
-        <v>1014.73757951051</v>
+        <v>845.6862328588763</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>624.8936537153462</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1246.899958573734</v>
+        <v>1101.143993102105</v>
       </c>
       <c r="C5" t="n">
-        <v>877.9374416333219</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2397.104888874747</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X5" t="n">
-        <v>2023.639130613667</v>
+        <v>1491.283325077917</v>
       </c>
       <c r="Y5" t="n">
-        <v>1633.499798637855</v>
+        <v>1101.143993102105</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.04593830764878</v>
+        <v>622.6901078854036</v>
       </c>
       <c r="C7" t="n">
-        <v>53.04593830764878</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D7" t="n">
-        <v>53.04593830764878</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E7" t="n">
-        <v>53.04593830764878</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>53.04593830764878</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1071.472237926951</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426267</v>
+        <v>1071.472237926951</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056661</v>
+        <v>1071.472237926951</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764878</v>
+        <v>843.4826870289337</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.04593830764878</v>
+        <v>622.6901078854036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149023</v>
+        <v>2005.386979171507</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>590.8070661251691</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C10" t="n">
-        <v>421.8708831972622</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D10" t="n">
-        <v>421.8708831972622</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E10" t="n">
-        <v>421.8708831972622</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>421.8708831972622</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>254.1680465719811</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1458.290376323225</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1458.290376323225</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1458.290376323225</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1203.605888117338</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>914.1887180803776</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251691</v>
+        <v>686.1991671823603</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5023,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263527</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5264,37 +5266,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5601,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.590151828076</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>2490.32382148308</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311994</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032925</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>482.6390612909568</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>334.7259677085636</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>187.8360202106533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>187.8360202106533</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2344.545841391669</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2124.944376414609</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1835.869149758807</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614391</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6543,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656826</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942663</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580122</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345484</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384028</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.2213777565</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4555.022482343312</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4335.421017366253</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>4335.421017366253</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>4080.736529160366</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3791.319359123406</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.25823202432787</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>84.94186588374691</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>75.84421273177655</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>91.59190980143154</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28.00274033431484</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>80.64613085857654</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>145.801494602747</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>79.63321623493862</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>146.3469868924061</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>167.2340587438926</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>112.9489693570378</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>622490.7110133481</v>
+        <v>629026.831264526</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642836</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642832</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642834</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819076</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="D4" t="n">
-        <v>86694.40323307092</v>
-      </c>
       <c r="E4" t="n">
+        <v>7507.36846171962</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719678</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.36846171966</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719635</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719633</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719633</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15498.2277248131</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15498.22772481312</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.2277248131</v>
-      </c>
       <c r="N4" t="n">
-        <v>15498.22772481312</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-519761.6496982251</v>
+        <v>-519761.6496982256</v>
       </c>
       <c r="C6" t="n">
+        <v>594990.1338776943</v>
+      </c>
+      <c r="D6" t="n">
         <v>594990.1338776944</v>
       </c>
-      <c r="D6" t="n">
-        <v>433786.2856294809</v>
-      </c>
       <c r="E6" t="n">
-        <v>373104.2395970243</v>
+        <v>191031.2597798334</v>
       </c>
       <c r="F6" t="n">
+        <v>698516.7014043797</v>
+      </c>
+      <c r="G6" t="n">
+        <v>698516.7014043792</v>
+      </c>
+      <c r="H6" t="n">
+        <v>698516.7014043794</v>
+      </c>
+      <c r="I6" t="n">
+        <v>698516.7014043793</v>
+      </c>
+      <c r="J6" t="n">
+        <v>530911.523594397</v>
+      </c>
+      <c r="K6" t="n">
+        <v>698516.7014043794</v>
+      </c>
+      <c r="L6" t="n">
+        <v>698516.7014043787</v>
+      </c>
+      <c r="M6" t="n">
+        <v>565909.407675453</v>
+      </c>
+      <c r="N6" t="n">
+        <v>698516.7014043793</v>
+      </c>
+      <c r="O6" t="n">
         <v>698516.7014043796</v>
       </c>
-      <c r="G6" t="n">
+      <c r="P6" t="n">
         <v>698516.7014043793</v>
-      </c>
-      <c r="H6" t="n">
-        <v>698516.7014043798</v>
-      </c>
-      <c r="I6" t="n">
-        <v>698516.7014043794</v>
-      </c>
-      <c r="J6" t="n">
-        <v>530911.5235943969</v>
-      </c>
-      <c r="K6" t="n">
-        <v>682951.7082919243</v>
-      </c>
-      <c r="L6" t="n">
-        <v>654085.4562773656</v>
-      </c>
-      <c r="M6" t="n">
-        <v>617324.3983500433</v>
-      </c>
-      <c r="N6" t="n">
-        <v>702379.4262855547</v>
-      </c>
-      <c r="O6" t="n">
-        <v>702379.4262855549</v>
-      </c>
-      <c r="P6" t="n">
-        <v>698516.7014043794</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.2489513706054</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>247.0492003377717</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>175.8846248523385</v>
       </c>
       <c r="V4" t="n">
-        <v>148.8788418911095</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27670,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>309.1110889860536</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>33.12409163412241</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>164.525439822555</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>23.12304357644075</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>25.00645992234172</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>173.5687740185437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>55.32806448575916</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.8458464675518</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.303062644890316e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28579,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.303062644890316e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>361.5531172119652</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32321,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>161.7871425275306</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209185</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,22 +33496,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>565.8030433278957</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>202.2352659288684</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>303.7670002884146</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q45" t="n">
-        <v>140.7358547888808</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>553.2044093850076</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>263.9377611478602</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>382.6222265215971</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>397.6203974676406</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>219.4190832899469</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35665,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35969,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>423.6690094058774</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37400,10 +37402,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>68.26085851453816</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>163.785226202393</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4055438.517332109</v>
+        <v>4051301.360081959</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>53.96935222463368</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>75.49088380154294</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>110.3425292688621</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>15.39756578193343</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>336.6070090443466</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>117.3906484318762</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1104,19 +1104,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>263.1041105447599</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>181.651725057892</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>196.6997841156777</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>74.81661389418568</v>
+        <v>90.69811547110045</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>105.182073269868</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>134.1177455876056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>118.4312223122543</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>65.78783178799263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>101.393069766706</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>20.8998342062217</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>50.17139158339562</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>214.4033048062054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>86.09789039964257</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.07731664460677</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>112.7606860319981</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>155.6850131498963</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.162304328173</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C2" t="n">
-        <v>914.1997873877617</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>914.1997873877617</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>528.4115347895174</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>117.4256299999099</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>105.7612837646028</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.762144392295</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.8936537153462</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>455.9574707874393</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1328.360271962781</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1073.675783756894</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>1073.675783756894</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>845.6862328588763</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.8936537153462</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1101.143993102105</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="C5" t="n">
-        <v>732.1814761616938</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="D5" t="n">
-        <v>373.9157775549434</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549434</v>
+        <v>548.8782827572536</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920692</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1491.283325077917</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1101.143993102105</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>622.6901078854036</v>
+        <v>572.6849327063065</v>
       </c>
       <c r="C7" t="n">
-        <v>453.7539249574967</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
@@ -4725,52 +4725,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1071.472237926951</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.472237926951</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.472237926951</v>
+        <v>1021.467062747854</v>
       </c>
       <c r="X7" t="n">
-        <v>843.4826870289337</v>
+        <v>793.4775118498367</v>
       </c>
       <c r="Y7" t="n">
-        <v>622.6901078854036</v>
+        <v>572.6849327063065</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>859.6852901911619</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4810,46 +4810,46 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2378.852737432587</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2378.852737432587</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2378.852737432587</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.852737432587</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X8" t="n">
-        <v>2005.386979171507</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.247647195695</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>370.2996089082457</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,37 +4977,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1458.290376323225</v>
+        <v>1544.83186202288</v>
       </c>
       <c r="T10" t="n">
-        <v>1458.290376323225</v>
+        <v>1544.83186202288</v>
       </c>
       <c r="U10" t="n">
-        <v>1458.290376323225</v>
+        <v>1544.83186202288</v>
       </c>
       <c r="V10" t="n">
-        <v>1203.605888117338</v>
+        <v>1290.147373816993</v>
       </c>
       <c r="W10" t="n">
-        <v>914.1887180803776</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>686.1991671823603</v>
+        <v>772.7406528820155</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.1991671823603</v>
+        <v>551.9480737384854</v>
       </c>
     </row>
     <row r="11">
@@ -5017,61 +5017,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168605</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5080,13 +5080,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.672861378251</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.672861378251</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1008.811725321348</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>788.0191461778176</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5597,16 +5597,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.4916164683283</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>754.5554335404214</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>604.4387941280856</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,7 +5758,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246296</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967227</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>551.263652184387</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5949,13 +5949,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.545841391669</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2124.944376414609</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3046.798896214207</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.229491085994</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.239940187977</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.447361044447</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6557,7 +6557,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2213.430075918604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1924.354849262801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1669.670361056914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>551.4727111160156</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>404.5827636181052</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4555.022482343312</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4335.421017366253</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>4335.421017366253</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>4080.736529160366</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W37" t="n">
-        <v>3791.319359123406</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X37" t="n">
-        <v>3563.329808225389</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y37" t="n">
-        <v>3342.537229081859</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407057</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>199.751631150407</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>14.25823202432787</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
-        <v>84.94186588374691</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241558</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.84421273177655</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>91.59190980143154</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>28.00274033431484</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>80.64613085857654</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>79.63321623493862</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>146.3469868924061</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>167.2340587438926</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>79.42624789262628</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>112.9489693570378</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642834</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900065</v>
       </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="O2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171962</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26450,7 +26450,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-519761.6496982256</v>
+        <v>-519761.6496982252</v>
       </c>
       <c r="C6" t="n">
-        <v>594990.1338776943</v>
+        <v>594990.1338776946</v>
       </c>
       <c r="D6" t="n">
         <v>594990.1338776944</v>
       </c>
       <c r="E6" t="n">
-        <v>191031.2597798334</v>
+        <v>190683.8805254759</v>
       </c>
       <c r="F6" t="n">
-        <v>698516.7014043797</v>
+        <v>698169.3221500226</v>
       </c>
       <c r="G6" t="n">
-        <v>698516.7014043792</v>
+        <v>698169.3221500226</v>
       </c>
       <c r="H6" t="n">
-        <v>698516.7014043794</v>
+        <v>698169.3221500227</v>
       </c>
       <c r="I6" t="n">
-        <v>698516.7014043793</v>
+        <v>698169.3221500225</v>
       </c>
       <c r="J6" t="n">
-        <v>530911.523594397</v>
+        <v>530564.14434004</v>
       </c>
       <c r="K6" t="n">
-        <v>698516.7014043794</v>
+        <v>698169.3221500225</v>
       </c>
       <c r="L6" t="n">
-        <v>698516.7014043787</v>
+        <v>698169.3221500227</v>
       </c>
       <c r="M6" t="n">
-        <v>565909.407675453</v>
+        <v>565562.0284210958</v>
       </c>
       <c r="N6" t="n">
-        <v>698516.7014043793</v>
+        <v>698169.3221500227</v>
       </c>
       <c r="O6" t="n">
-        <v>698516.7014043796</v>
+        <v>698169.3221500227</v>
       </c>
       <c r="P6" t="n">
-        <v>698516.7014043793</v>
+        <v>698169.3221500226</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>247.0492003377717</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>131.1673011786908</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>175.8846248523385</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>391.478479959778</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>33.12409163412241</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>49.85617266675166</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>23.12304357644075</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>25.00645992234172</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.0313165627913</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>119.8458464675518</v>
+        <v>103.964344890637</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.303062644890316e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>-7.71678812803845e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.303062644890316e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,46 +31281,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,16 +31688,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>361.5531172119652</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>161.7871425275306</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,10 +33031,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>671.9287955253226</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33046,10 +33046,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>565.8030433278957</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33973,10 +33973,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>467.1465236515248</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34786,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>566.6829634324475</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>263.9377611478602</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
-        <v>382.6222265215971</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676406</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,16 +35497,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>219.4190832899469</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>23.94570355317166</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410443</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,10 +36679,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>529.7947616033043</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>22.33282074962425</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>423.6690094058774</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>328.5921438716506</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4051301.360081959</v>
+        <v>4053061.890384744</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7126373.887583656</v>
+        <v>7126373.887583655</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>75.49088380154294</v>
+        <v>75.49088380154383</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>15.39756578193343</v>
+        <v>15.39756578193535</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>117.3906484318762</v>
+        <v>117.3906484318768</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156777</v>
+        <v>196.6997841156795</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>90.69811547110045</v>
+        <v>90.69811547110089</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.07327741456097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>125.8152577453148</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>86.09789039964257</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>177.6965697803346</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4345,19 +4345,19 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
         <v>2361.386702945269</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
         <v>1154.038517360656</v>
@@ -4424,37 +4424,37 @@
         <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D4" t="n">
         <v>346.0498276483066</v>
@@ -4476,28 +4476,28 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,19 +4509,19 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
         <v>1584.950414897297</v>
@@ -4533,7 +4533,7 @@
         <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554979</v>
+        <v>934.6665353554997</v>
       </c>
       <c r="C5" t="n">
-        <v>934.6665353554979</v>
+        <v>934.6665353554997</v>
       </c>
       <c r="D5" t="n">
-        <v>934.6665353554979</v>
+        <v>934.6665353554997</v>
       </c>
       <c r="E5" t="n">
-        <v>548.8782827572536</v>
+        <v>548.8782827572554</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923563</v>
@@ -4582,37 +4582,37 @@
         <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>2084.871465656513</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1321.266375419621</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694947</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.6849327063065</v>
+        <v>572.6849327063072</v>
       </c>
       <c r="C7" t="n">
         <v>454.1085201488559</v>
@@ -4722,37 +4722,37 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
         <v>1310.884232784815</v>
@@ -4764,13 +4764,13 @@
         <v>1310.884232784815</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.467062747854</v>
+        <v>1021.467062747855</v>
       </c>
       <c r="X7" t="n">
-        <v>793.4775118498367</v>
+        <v>793.4775118498374</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.6849327063065</v>
+        <v>572.6849327063072</v>
       </c>
     </row>
     <row r="8">
@@ -4786,64 +4786,64 @@
         <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6852901911619</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
         <v>2363.652677778257</v>
@@ -4880,22 +4880,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694947</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082457</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
         <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.83186202288</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.83186202288</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.83186202288</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816993</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
         <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820155</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384854</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075798</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5415,49 +5415,49 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2437.724555511392</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
         <v>776.1751066403293</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1018.438627038651</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>849.5024441107445</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>699.3858046984087</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>551.4727111160156</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>404.5827636181052</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1200.087091868891</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7362,22 +7362,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7602,7 +7602,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
         <v>2018.514925172274</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>199.751631150407</v>
+        <v>199.7516311504068</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878355</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>39.70888054695402</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>79.42624789262628</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695368</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>85.45266000108626</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900065</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900062</v>
@@ -26343,19 +26343,19 @@
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900065</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467442</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="D4" t="n">
-        <v>133113.8635467444</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719628</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-519761.6496982252</v>
+        <v>-519761.6496982254</v>
       </c>
       <c r="C6" t="n">
+        <v>594990.1338776944</v>
+      </c>
+      <c r="D6" t="n">
         <v>594990.1338776946</v>
       </c>
-      <c r="D6" t="n">
-        <v>594990.1338776944</v>
-      </c>
       <c r="E6" t="n">
-        <v>190683.8805254759</v>
+        <v>190996.5218543977</v>
       </c>
       <c r="F6" t="n">
-        <v>698169.3221500226</v>
+        <v>698481.963478944</v>
       </c>
       <c r="G6" t="n">
-        <v>698169.3221500226</v>
+        <v>698481.963478944</v>
       </c>
       <c r="H6" t="n">
-        <v>698169.3221500227</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="I6" t="n">
-        <v>698169.3221500225</v>
+        <v>698481.9634789437</v>
       </c>
       <c r="J6" t="n">
-        <v>530564.14434004</v>
+        <v>530876.7856689614</v>
       </c>
       <c r="K6" t="n">
-        <v>698169.3221500225</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="L6" t="n">
-        <v>698169.3221500227</v>
+        <v>698481.9634789437</v>
       </c>
       <c r="M6" t="n">
-        <v>565562.0284210958</v>
+        <v>565874.669750017</v>
       </c>
       <c r="N6" t="n">
-        <v>698169.3221500227</v>
+        <v>698481.9634789441</v>
       </c>
       <c r="O6" t="n">
-        <v>698169.3221500227</v>
+        <v>698481.963478944</v>
       </c>
       <c r="P6" t="n">
-        <v>698169.3221500226</v>
+        <v>698481.963478944</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26919,14 +26919,14 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>131.1673011786908</v>
+        <v>131.1673011786899</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>391.478479959778</v>
+        <v>391.4784799597761</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>49.85617266675166</v>
+        <v>49.85617266675099</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627913</v>
+        <v>173.0313165627896</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,7 +28061,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>103.964344890637</v>
+        <v>103.9643448906366</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,31 +31436,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,31 +31673,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>164.9290651940687</v>
@@ -32098,19 +32098,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>566.6829634324475</v>
+        <v>566.6829634324474</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313202</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313202</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>22.33282074962425</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
